--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_BPF_Board_BOM_V12.6_09-28-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_BPF_Board_BOM_V12.6_09-28-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CACD39E-3346-43EA-A12F-B841EA3C227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C79061-1595-459D-A67D-7B9AEE1D8E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="257">
   <si>
     <t>Quantity</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>70-IFSC2020DER100M01</t>
+  </si>
+  <si>
+    <t>490-10814-1-ND</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -874,6 +877,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -939,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,6 +1023,7 @@
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,7 +1433,7 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E1:E1048576"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1432,7 +1442,7 @@
     <col min="2" max="2" width="31.54296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.36328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.08984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.90625" style="3" customWidth="1"/>
     <col min="7" max="7" width="31.08984375" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.453125" style="3" customWidth="1"/>
@@ -2005,6 +2015,9 @@
       </c>
       <c r="D41" s="3" t="s">
         <v>255</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">

--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_BPF_Board_BOM_V12.6_09-28-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_BPF_Board_BOM_V12.6_09-28-24.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C79061-1595-459D-A67D-7B9AEE1D8E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DFBE46-C585-480A-BE50-D7A44602907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPF BOM" sheetId="1" r:id="rId1"/>
     <sheet name="BPF Coil Design" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="334">
   <si>
     <t>Quantity</t>
   </si>
@@ -465,9 +466,6 @@
     <t>2 uH</t>
   </si>
   <si>
-    <t>14" of  #28 wire, 26T on T37-6</t>
-  </si>
-  <si>
     <t>L402, L404</t>
   </si>
   <si>
@@ -483,9 +481,6 @@
     <t>1 uH</t>
   </si>
   <si>
-    <t>11" of  #28 wire, 20T on T37-10</t>
-  </si>
-  <si>
     <t>L191, L195</t>
   </si>
   <si>
@@ -507,9 +502,6 @@
     <t>720 nH</t>
   </si>
   <si>
-    <t>11" of  #28 wire, 17T on T37-10</t>
-  </si>
-  <si>
     <t>L103, L201, L205</t>
   </si>
   <si>
@@ -594,18 +586,12 @@
     <t>39 nH</t>
   </si>
   <si>
-    <t>5" of #28 wire, 9T on T37-0</t>
-  </si>
-  <si>
     <t>L603</t>
   </si>
   <si>
     <t>24 nH</t>
   </si>
   <si>
-    <t>4" of #28 wire, 7T on T37-0</t>
-  </si>
-  <si>
     <t>R1, R2, R3, R4, R5, R6, R7, R8</t>
   </si>
   <si>
@@ -651,27 +637,9 @@
     <t>595-SN74LVC1G04DCKR</t>
   </si>
   <si>
-    <t>T37-0 Toroid Cores</t>
-  </si>
-  <si>
     <t>KitsAndParts.Com</t>
   </si>
   <si>
-    <t>T37-1 Toroid Cores</t>
-  </si>
-  <si>
-    <t>T37-2 Toroid Cores</t>
-  </si>
-  <si>
-    <t>T37-6 Toroid Cores</t>
-  </si>
-  <si>
-    <t>T37-10 Toroid Cores</t>
-  </si>
-  <si>
-    <t>FT37-61 Toroid Cores</t>
-  </si>
-  <si>
     <t>511" of #28 Transformer Wire</t>
   </si>
   <si>
@@ -808,6 +776,270 @@
   </si>
   <si>
     <t>490-10814-1-ND</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>160M</t>
+  </si>
+  <si>
+    <t>L091</t>
+  </si>
+  <si>
+    <t>L092</t>
+  </si>
+  <si>
+    <t>L093</t>
+  </si>
+  <si>
+    <t>L094</t>
+  </si>
+  <si>
+    <t>L095</t>
+  </si>
+  <si>
+    <t>80M</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>L102</t>
+  </si>
+  <si>
+    <t>L103</t>
+  </si>
+  <si>
+    <t>L104</t>
+  </si>
+  <si>
+    <t>L105</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>L191</t>
+  </si>
+  <si>
+    <t>L192</t>
+  </si>
+  <si>
+    <t>L194</t>
+  </si>
+  <si>
+    <t>L195</t>
+  </si>
+  <si>
+    <t>40M</t>
+  </si>
+  <si>
+    <t>L201</t>
+  </si>
+  <si>
+    <t>L202</t>
+  </si>
+  <si>
+    <t>L204</t>
+  </si>
+  <si>
+    <t>L205</t>
+  </si>
+  <si>
+    <t>30M</t>
+  </si>
+  <si>
+    <t>L291</t>
+  </si>
+  <si>
+    <t>L292</t>
+  </si>
+  <si>
+    <t>L294</t>
+  </si>
+  <si>
+    <t>L295</t>
+  </si>
+  <si>
+    <t>20M</t>
+  </si>
+  <si>
+    <t>L301</t>
+  </si>
+  <si>
+    <t>L302</t>
+  </si>
+  <si>
+    <t>L303</t>
+  </si>
+  <si>
+    <t>L304</t>
+  </si>
+  <si>
+    <t>L305</t>
+  </si>
+  <si>
+    <t>17M / 15M</t>
+  </si>
+  <si>
+    <t>L401</t>
+  </si>
+  <si>
+    <t>L402</t>
+  </si>
+  <si>
+    <t>L403</t>
+  </si>
+  <si>
+    <t>L404</t>
+  </si>
+  <si>
+    <t>L405</t>
+  </si>
+  <si>
+    <t>12M / 10M</t>
+  </si>
+  <si>
+    <t>L501</t>
+  </si>
+  <si>
+    <t>L502</t>
+  </si>
+  <si>
+    <t>L503</t>
+  </si>
+  <si>
+    <t>L504</t>
+  </si>
+  <si>
+    <t>L505</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>*none*</t>
+  </si>
+  <si>
+    <t>FT37-10</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>L601</t>
+  </si>
+  <si>
+    <t>L602</t>
+  </si>
+  <si>
+    <t>L604</t>
+  </si>
+  <si>
+    <t>L605</t>
+  </si>
+  <si>
+    <t>1/8" Dia Drill</t>
+  </si>
+  <si>
+    <t>5/16" Dia Drill</t>
+  </si>
+  <si>
+    <t>11" of  #28 wire, 13T on 5/16" Drill</t>
+  </si>
+  <si>
+    <t>5" of #28 wire, 3T on 1/8" Drill</t>
+  </si>
+  <si>
+    <t>4" of #28 wire, 5T on 1/8" Drill</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>T41-0</t>
+  </si>
+  <si>
+    <t>T37-0 Toroid Cores (Tan)</t>
+  </si>
+  <si>
+    <t>T37-1 Toroid Cores (Blue)</t>
+  </si>
+  <si>
+    <t>T37-2 Toroid Cores (Red)</t>
+  </si>
+  <si>
+    <t>T37-6 Toroid Cores (Yellow)</t>
+  </si>
+  <si>
+    <t>T37-10 Toroid Cores (Black)</t>
+  </si>
+  <si>
+    <t>FT37-61 Toroid Cores (*none*)</t>
+  </si>
+  <si>
+    <t>Blue/Yel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T37-1 </t>
+  </si>
+  <si>
+    <t>14" of  #28 wire, 25T on T37-6</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>L93</t>
+  </si>
+  <si>
+    <t>11" of  #28 wire, 20T on T37-9</t>
+  </si>
+  <si>
+    <t>L101, L105</t>
+  </si>
+  <si>
+    <t>1 uh</t>
+  </si>
+  <si>
+    <t>11" of  #28 wire, 18T on T37-10</t>
+  </si>
+  <si>
+    <t>810 nH</t>
+  </si>
+  <si>
+    <t>440 nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L103 </t>
+  </si>
+  <si>
+    <t>L201, L205</t>
+  </si>
+  <si>
+    <t>18" of #28 wire, 30T on T37-0</t>
   </si>
 </sst>
 </file>
@@ -818,7 +1050,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -884,8 +1116,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,6 +1198,30 @@
         <bgColor rgb="FFAFABAB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -948,7 +1236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1024,6 +1312,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,10 +1750,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ77"/>
+  <dimension ref="A1:AMJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1445,8 +1765,9 @@
     <col min="5" max="5" width="18.54296875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.90625" style="3" customWidth="1"/>
     <col min="7" max="7" width="31.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="3" customWidth="1"/>
-    <col min="9" max="1024" width="8.6328125" style="3"/>
+    <col min="8" max="8" width="16.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" style="3" customWidth="1"/>
+    <col min="10" max="1024" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1494,7 +1815,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -1891,7 +2212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1905,7 +2226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1919,7 +2240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1933,7 +2254,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1947,7 +2268,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -1961,7 +2282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -1969,13 +2290,13 @@
         <v>109</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1989,7 +2310,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -2003,7 +2324,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -2014,13 +2335,13 @@
         <v>118</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -2034,7 +2355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -2044,11 +2365,14 @@
       <c r="C43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="38" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I43" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -2058,11 +2382,11 @@
       <c r="C44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2076,7 +2400,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2090,7 +2414,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2104,7 +2428,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -2118,7 +2442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -2128,385 +2452,417 @@
       <c r="C49" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>146</v>
+        <v>324</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>154</v>
+        <v>326</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>3</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>3</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>2</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>2</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="G64" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>192</v>
+      <c r="B67" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>1</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>21</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="3" t="s">
+    </row>
+    <row r="72" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>11</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="62" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>21</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="D72" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>11</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>19</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>6</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>4</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>2</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>210</v>
+        <v>4</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
+        <v>13</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>205</v>
+      <c r="C79" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="3" scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2514,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ30"/>
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2544,114 +2900,114 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="T1" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="U1" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="V1" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="W1" s="13"/>
       <c r="X1" s="16" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AG1" s="13"/>
       <c r="AH1" s="11" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14">
@@ -2707,13 +3063,13 @@
       </c>
       <c r="W2" s="13"/>
       <c r="X2" s="12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AA2" s="14">
         <v>0.49</v>
@@ -2736,24 +3092,24 @@
       </c>
       <c r="AG2" s="13"/>
       <c r="AH2" s="11" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="11">
@@ -2800,12 +3156,12 @@
         <v>0.52</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="11">
@@ -2850,223 +3206,146 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="E5" s="13"/>
+      <c r="F5" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="W5" s="13"/>
       <c r="AG5" s="13"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="E6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="AG6" s="13"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20">
-        <f t="shared" ref="F6:O15" si="0">SQRT($Y6*1000/F$2)</f>
+      <c r="C7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20">
+        <f t="shared" ref="F7:O16" si="0">SQRT($Y7*1000/F$2)</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G7" s="20">
         <f t="shared" si="0"/>
         <v>2.4494897427831779</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H7" s="20">
         <f t="shared" si="0"/>
         <v>2.7386127875258306</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>2.8284271247461903</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J7" s="20">
         <f t="shared" si="0"/>
         <v>3.0983866769659336</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K7" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L7" s="21">
         <f t="shared" si="0"/>
         <v>6.9985421222376516</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M7" s="20">
         <f t="shared" si="0"/>
         <v>1.7429786813223802</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N7" s="20">
         <f t="shared" si="0"/>
         <v>0.98373875367592944</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O7" s="20">
         <f t="shared" si="0"/>
         <v>0.3572948005052482</v>
       </c>
-      <c r="P6" s="20">
-        <f t="shared" ref="P6:V15" si="1">SQRT($Y6*1000/P$2)</f>
+      <c r="P7" s="20">
+        <f t="shared" ref="P7:V16" si="1">SQRT($Y7*1000/P$2)</f>
         <v>0.24618298195866548</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q7" s="20">
         <f t="shared" si="1"/>
         <v>0.15649215928719032</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R7" s="20">
         <f t="shared" si="1"/>
         <v>1.1037545522783256</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S7" s="20">
         <f t="shared" si="1"/>
         <v>0.65878401875233128</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T7" s="20">
         <f t="shared" si="1"/>
         <v>0.23904572186687872</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U7" s="20">
         <f t="shared" si="1"/>
         <v>0.16477051091432693</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V7" s="20">
         <f t="shared" si="1"/>
         <v>0.10454167469786334</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="22">
-        <v>24</v>
-      </c>
-      <c r="Y6" s="16">
-        <f t="shared" ref="Y6:Y28" si="2">X6/1000</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="Z6" s="23">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="24">
-        <f t="shared" ref="AA6:AA14" si="3">$Z6*$Z6*AA$2</f>
-        <v>24.009999999999998</v>
-      </c>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="25">
-        <f t="shared" ref="AH6:AH14" si="4">(AA6-X6)/X6</f>
-        <v>4.1666666666658375E-4</v>
-      </c>
-      <c r="AI6" s="21">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="21">
-        <f t="shared" ref="AJ6:AJ28" si="5">AI6*B6</f>
-        <v>4</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM6" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20">
-        <f t="shared" si="0"/>
-        <v>2.2079402165819619</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="0"/>
-        <v>3.1224989991991992</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" si="0"/>
-        <v>3.4910600109422352</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="0"/>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="0"/>
-        <v>3.9496835316262997</v>
-      </c>
-      <c r="K7" s="20">
-        <f t="shared" si="0"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="L7" s="21">
-        <f t="shared" si="0"/>
-        <v>8.9214257119977116</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" si="0"/>
-        <v>2.2218705769597591</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="0"/>
-        <v>1.2540257753177524</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="0"/>
-        <v>0.45546328997037544</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="1"/>
-        <v>0.31382295723042392</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="1"/>
-        <v>0.19948914348241345</v>
-      </c>
-      <c r="R7" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4070165000710124</v>
-      </c>
-      <c r="S7" s="20">
-        <f t="shared" si="1"/>
-        <v>0.83978814171530314</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" si="1"/>
-        <v>0.30472470011002201</v>
-      </c>
-      <c r="U7" s="20">
-        <f t="shared" si="1"/>
-        <v>0.21004201260420147</v>
-      </c>
-      <c r="V7" s="20">
-        <f t="shared" si="1"/>
-        <v>0.13326500981701855</v>
-      </c>
       <c r="W7" s="19"/>
       <c r="X7" s="22">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Y7" s="16">
-        <f t="shared" si="2"/>
-        <v>3.9E-2</v>
+        <f t="shared" ref="Y7:Y29" si="2">X7/1000</f>
+        <v>2.4E-2</v>
       </c>
       <c r="Z7" s="23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="24">
-        <f t="shared" si="3"/>
-        <v>39.69</v>
+        <f t="shared" ref="AA7:AA15" si="3">$Z7*$Z7*AA$2</f>
+        <v>24.009999999999998</v>
       </c>
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
@@ -3075,21 +3354,21 @@
       <c r="AF7" s="21"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="25">
-        <f t="shared" si="4"/>
-        <v>1.7692307692307636E-2</v>
+        <f t="shared" ref="AH7:AH15" si="4">(AA7-X7)/X7</f>
+        <v>4.1666666666658375E-4</v>
       </c>
       <c r="AI7" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ7" s="21">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AL7" s="26" t="s">
-        <v>214</v>
+        <f t="shared" ref="AJ7:AJ29" si="5">AI7*B7</f>
+        <v>4</v>
+      </c>
+      <c r="AL7" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="AM7" s="11">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
@@ -3105,86 +3384,86 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>3.2015621187164243</v>
+        <v>2.2079402165819619</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" si="0"/>
-        <v>4.5276925690687087</v>
-      </c>
-      <c r="H8" s="21">
-        <f t="shared" si="0"/>
-        <v>5.0621141828291467</v>
-      </c>
-      <c r="I8" s="21">
-        <f t="shared" si="0"/>
-        <v>5.2281290471193742</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="0"/>
-        <v>5.727128425310541</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="0"/>
-        <v>7.3936910042729442</v>
+        <v>3.1224989991991992</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>3.4910600109422352</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>3.9496835316262997</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
       </c>
       <c r="L8" s="21">
         <f t="shared" si="0"/>
-        <v>12.936264483053453</v>
+        <v>8.9214257119977116</v>
       </c>
       <c r="M8" s="20">
         <f t="shared" si="0"/>
-        <v>3.2217614491832007</v>
+        <v>2.2218705769597591</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" si="0"/>
-        <v>1.8183650934020994</v>
+        <v>1.2540257753177524</v>
       </c>
       <c r="O8" s="20">
         <f t="shared" si="0"/>
-        <v>0.66043183809228756</v>
+        <v>0.45546328997037544</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="1"/>
-        <v>0.45505022477821838</v>
+        <v>0.31382295723042392</v>
       </c>
       <c r="Q8" s="20">
         <f t="shared" si="1"/>
-        <v>0.28926366759023697</v>
+        <v>0.19948914348241345</v>
       </c>
       <c r="R8" s="20">
         <f t="shared" si="1"/>
-        <v>2.040205026026392</v>
+        <v>1.4070165000710124</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="1"/>
-        <v>1.2177113683019727</v>
+        <v>0.83978814171530314</v>
       </c>
       <c r="T8" s="20">
         <f t="shared" si="1"/>
-        <v>0.44185755084426842</v>
+        <v>0.30472470011002201</v>
       </c>
       <c r="U8" s="20">
         <f t="shared" si="1"/>
-        <v>0.30456556107917898</v>
+        <v>0.21004201260420147</v>
       </c>
       <c r="V8" s="20">
         <f t="shared" si="1"/>
-        <v>0.19323720994630517</v>
+        <v>0.13326500981701855</v>
       </c>
       <c r="W8" s="19"/>
       <c r="X8" s="22">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y8" s="16">
         <f t="shared" si="2"/>
-        <v>8.2000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="Z8" s="23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA8" s="24">
         <f t="shared" si="3"/>
-        <v>82.81</v>
+        <v>39.69</v>
       </c>
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
@@ -3194,115 +3473,115 @@
       <c r="AG8" s="19"/>
       <c r="AH8" s="25">
         <f t="shared" si="4"/>
-        <v>9.8780487804878327E-3</v>
+        <v>1.7692307692307636E-2</v>
       </c>
       <c r="AI8" s="21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ8" s="21">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="AL8" s="14" t="s">
-        <v>215</v>
+        <v>10</v>
+      </c>
+      <c r="AL8" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="AM8" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="20">
         <f t="shared" si="0"/>
-        <v>3.872983346207417</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="0"/>
-        <v>5.4772255750516612</v>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>4.5276925690687087</v>
       </c>
       <c r="H9" s="21">
         <f t="shared" si="0"/>
-        <v>6.1237243569579451</v>
+        <v>5.0621141828291467</v>
       </c>
       <c r="I9" s="21">
         <f t="shared" si="0"/>
-        <v>6.324555320336759</v>
+        <v>5.2281290471193742</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="0"/>
-        <v>6.9282032302755088</v>
+        <v>5.727128425310541</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="0"/>
-        <v>8.9442719099991592</v>
+        <v>7.3936910042729442</v>
       </c>
       <c r="L9" s="21">
         <f t="shared" si="0"/>
-        <v>15.649215928719032</v>
+        <v>12.936264483053453</v>
       </c>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>3.8974188147697855</v>
+        <v>3.2217614491832007</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="0"/>
-        <v>2.1997067253202993</v>
+        <v>1.8183650934020994</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" si="0"/>
-        <v>0.79893546193696119</v>
+        <v>0.66043183809228756</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="1"/>
-        <v>0.55048188256318031</v>
+        <v>0.45505022477821838</v>
       </c>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>0.3499271061118826</v>
+        <v>0.28926366759023697</v>
       </c>
       <c r="R9" s="20">
         <f t="shared" si="1"/>
-        <v>2.4680702093691815</v>
+        <v>2.040205026026392</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="1"/>
-        <v>1.473085848420709</v>
+        <v>1.2177113683019727</v>
       </c>
       <c r="T9" s="20">
         <f t="shared" si="1"/>
-        <v>0.53452248382484879</v>
+        <v>0.44185755084426842</v>
       </c>
       <c r="U9" s="20">
         <f t="shared" si="1"/>
-        <v>0.36843806309180599</v>
+        <v>0.30456556107917898</v>
       </c>
       <c r="V9" s="20">
         <f t="shared" si="1"/>
-        <v>0.2337622911060922</v>
+        <v>0.19323720994630517</v>
       </c>
       <c r="W9" s="19"/>
       <c r="X9" s="22">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="Y9" s="16">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="Z9" s="23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA9" s="24">
         <f t="shared" si="3"/>
-        <v>125.44</v>
+        <v>82.81</v>
       </c>
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
@@ -3312,25 +3591,25 @@
       <c r="AG9" s="19"/>
       <c r="AH9" s="25">
         <f t="shared" si="4"/>
-        <v>4.5333333333333316E-2</v>
+        <v>9.8780487804878327E-3</v>
       </c>
       <c r="AI9" s="21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ9" s="21">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AL9" s="14" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AM9" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>176</v>
@@ -3341,79 +3620,79 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20">
         <f t="shared" si="0"/>
-        <v>4.0620192023179804</v>
+        <v>3.872983346207417</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="0"/>
-        <v>5.7445626465380286</v>
+        <v>5.4772255750516612</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" si="0"/>
-        <v>6.4226162893325647</v>
+        <v>6.1237243569579451</v>
       </c>
       <c r="I10" s="21">
         <f t="shared" si="0"/>
-        <v>6.6332495807107996</v>
+        <v>6.324555320336759</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
-        <v>7.2663608498339798</v>
+        <v>6.9282032302755088</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="0"/>
-        <v>9.3808315196468595</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="L10" s="21">
         <f t="shared" si="0"/>
-        <v>16.413036132965797</v>
+        <v>15.649215928719032</v>
       </c>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>4.0876473379553762</v>
+        <v>3.8974188147697855</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="0"/>
-        <v>2.3070718768953191</v>
+        <v>2.1997067253202993</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" si="0"/>
-        <v>0.83793058159639222</v>
+        <v>0.79893546193696119</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="1"/>
-        <v>0.57735026918962573</v>
+        <v>0.55048188256318031</v>
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="1"/>
-        <v>0.36700664510471798</v>
+        <v>0.3499271061118826</v>
       </c>
       <c r="R10" s="20">
         <f t="shared" si="1"/>
-        <v>2.5885338734915559</v>
+        <v>2.4680702093691815</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="1"/>
-        <v>1.5449854719378742</v>
+        <v>1.473085848420709</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="1"/>
-        <v>0.56061191058138804</v>
+        <v>0.53452248382484879</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="1"/>
-        <v>0.38642110057335871</v>
+        <v>0.36843806309180599</v>
       </c>
       <c r="V10" s="20">
         <f t="shared" si="1"/>
-        <v>0.24517195928059624</v>
+        <v>0.2337622911060922</v>
       </c>
       <c r="W10" s="19"/>
       <c r="X10" s="22">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Y10" s="16">
         <f t="shared" si="2"/>
-        <v>0.13200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Z10" s="23">
         <v>16</v>
@@ -3430,25 +3709,25 @@
       <c r="AG10" s="19"/>
       <c r="AH10" s="25">
         <f t="shared" si="4"/>
-        <v>-4.9696969696969712E-2</v>
+        <v>4.5333333333333316E-2</v>
       </c>
       <c r="AI10" s="21">
         <v>9</v>
       </c>
       <c r="AJ10" s="21">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AL10" s="14" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AM10" s="11">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>173</v>
@@ -3459,86 +3738,86 @@
       <c r="E11" s="19"/>
       <c r="F11" s="20">
         <f t="shared" si="0"/>
-        <v>4.3301270189221936</v>
+        <v>4.0620192023179804</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="0"/>
-        <v>6.1237243569579451</v>
+        <v>5.7445626465380286</v>
       </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
-        <v>6.8465319688145767</v>
+        <v>6.4226162893325647</v>
       </c>
       <c r="I11" s="21">
         <f t="shared" si="0"/>
-        <v>7.0710678118654755</v>
+        <v>6.6332495807107996</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="0"/>
-        <v>7.745966692414834</v>
+        <v>7.2663608498339798</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.3808315196468595</v>
       </c>
       <c r="L11" s="21">
         <f t="shared" si="0"/>
-        <v>17.496355305594129</v>
+        <v>16.413036132965797</v>
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>4.3574467033059507</v>
+        <v>4.0876473379553762</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="0"/>
-        <v>2.4593468841898236</v>
+        <v>2.3070718768953191</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="0"/>
-        <v>0.89323700126312044</v>
+        <v>0.83793058159639222</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="1"/>
-        <v>0.6154574548966637</v>
+        <v>0.57735026918962573</v>
       </c>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>0.39123039821797578</v>
+        <v>0.36700664510471798</v>
       </c>
       <c r="R11" s="20">
         <f t="shared" si="1"/>
-        <v>2.7593863806958141</v>
+        <v>2.5885338734915559</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="1"/>
-        <v>1.6469600468808283</v>
+        <v>1.5449854719378742</v>
       </c>
       <c r="T11" s="20">
         <f t="shared" si="1"/>
-        <v>0.59761430466719678</v>
+        <v>0.56061191058138804</v>
       </c>
       <c r="U11" s="20">
         <f t="shared" si="1"/>
-        <v>0.41192627728581732</v>
+        <v>0.38642110057335871</v>
       </c>
       <c r="V11" s="20">
         <f t="shared" si="1"/>
-        <v>0.26135418674465838</v>
+        <v>0.24517195928059624</v>
       </c>
       <c r="W11" s="19"/>
       <c r="X11" s="22">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="Y11" s="16">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="Z11" s="23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA11" s="24">
         <f t="shared" si="3"/>
-        <v>141.60999999999999</v>
+        <v>125.44</v>
       </c>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
@@ -3548,20 +3827,20 @@
       <c r="AG11" s="19"/>
       <c r="AH11" s="25">
         <f t="shared" si="4"/>
-        <v>-5.5933333333333432E-2</v>
+        <v>-4.9696969696969712E-2</v>
       </c>
       <c r="AI11" s="21">
         <v>9</v>
       </c>
       <c r="AJ11" s="21">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="AL11" s="15" t="s">
-        <v>227</v>
+        <v>9</v>
+      </c>
+      <c r="AL11" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="AM11" s="11">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
@@ -3575,88 +3854,88 @@
         <v>169</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="21">
-        <f t="shared" si="0"/>
-        <v>5.2440442408507577</v>
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>4.3301270189221936</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v>7.416198487095663</v>
+        <v>6.1237243569579451</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
-        <v>8.2915619758885004</v>
+        <v>6.8465319688145767</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" si="0"/>
-        <v>8.5634883857767523</v>
+        <v>7.0710678118654755</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>9.3808315196468595</v>
+        <v>7.745966692414834</v>
       </c>
       <c r="K12" s="21">
         <f t="shared" si="0"/>
-        <v>12.110601416389967</v>
+        <v>10</v>
       </c>
       <c r="L12" s="21">
         <f t="shared" si="0"/>
-        <v>21.189138534559039</v>
-      </c>
-      <c r="M12" s="21">
-        <f t="shared" si="0"/>
-        <v>5.277130021690084</v>
+        <v>17.496355305594129</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="0"/>
+        <v>4.3574467033059507</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="0"/>
-        <v>2.9784169859063527</v>
+        <v>2.4593468841898236</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="0"/>
-        <v>1.0817637292669073</v>
+        <v>0.89323700126312044</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="1"/>
-        <v>0.7453559924999299</v>
+        <v>0.6154574548966637</v>
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="1"/>
-        <v>0.47380354147934284</v>
+        <v>0.39123039821797578</v>
       </c>
       <c r="R12" s="20">
         <f t="shared" si="1"/>
-        <v>3.3417828610421907</v>
+        <v>2.7593863806958141</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="1"/>
-        <v>1.9945676676492645</v>
+        <v>1.6469600468808283</v>
       </c>
       <c r="T12" s="20">
         <f t="shared" si="1"/>
-        <v>0.72374686445574588</v>
+        <v>0.59761430466719678</v>
       </c>
       <c r="U12" s="20">
         <f t="shared" si="1"/>
-        <v>0.4988674957145865</v>
+        <v>0.41192627728581732</v>
       </c>
       <c r="V12" s="20">
         <f t="shared" si="1"/>
-        <v>0.3165156384169307</v>
+        <v>0.26135418674465838</v>
       </c>
       <c r="W12" s="19"/>
       <c r="X12" s="22">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="Y12" s="16">
         <f t="shared" si="2"/>
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="Z12" s="23">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="24">
         <f t="shared" si="3"/>
-        <v>216.09</v>
+        <v>141.60999999999999</v>
       </c>
       <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
@@ -3666,18 +3945,20 @@
       <c r="AG12" s="19"/>
       <c r="AH12" s="25">
         <f t="shared" si="4"/>
-        <v>-1.7772727272727256E-2</v>
+        <v>-5.5933333333333432E-2</v>
       </c>
       <c r="AI12" s="21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ12" s="21">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="AL12" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="AM12" s="11">
-        <f>SUM(AM6:AM11)</f>
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.35">
@@ -3693,86 +3974,86 @@
       <c r="E13" s="19"/>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>5.5339859052946636</v>
+        <v>5.2440442408507577</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v>7.8262379212492643</v>
+        <v>7.416198487095663</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
-        <v>8.75</v>
+        <v>8.2915619758885004</v>
       </c>
       <c r="I13" s="21">
         <f t="shared" si="0"/>
-        <v>9.0369611411506394</v>
+        <v>8.5634883857767523</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="0"/>
-        <v>9.8994949366116654</v>
+        <v>9.3808315196468595</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" si="0"/>
-        <v>12.780193008453876</v>
+        <v>12.110601416389967</v>
       </c>
       <c r="L13" s="21">
         <f t="shared" si="0"/>
-        <v>22.360679774997898</v>
+        <v>21.189138534559039</v>
       </c>
       <c r="M13" s="21">
         <f t="shared" si="0"/>
-        <v>5.5689009892301105</v>
+        <v>5.277130021690084</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="0"/>
-        <v>3.1430927854685606</v>
+        <v>2.9784169859063527</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" si="0"/>
-        <v>1.1415741278435239</v>
+        <v>1.0817637292669073</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="1"/>
-        <v>0.78656650620711577</v>
+        <v>0.7453559924999299</v>
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.47380354147934284</v>
       </c>
       <c r="R13" s="20">
         <f t="shared" si="1"/>
-        <v>3.5265490530191488</v>
+        <v>3.3417828610421907</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="1"/>
-        <v>2.1048467276349228</v>
+        <v>1.9945676676492645</v>
       </c>
       <c r="T13" s="20">
         <f t="shared" si="1"/>
-        <v>0.76376261582597338</v>
+        <v>0.72374686445574588</v>
       </c>
       <c r="U13" s="20">
         <f t="shared" si="1"/>
-        <v>0.52644973289666352</v>
+        <v>0.4988674957145865</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="1"/>
-        <v>0.33401569501642314</v>
+        <v>0.3165156384169307</v>
       </c>
       <c r="W13" s="19"/>
       <c r="X13" s="22">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="Y13" s="16">
         <f t="shared" si="2"/>
-        <v>0.245</v>
+        <v>0.22</v>
       </c>
       <c r="Z13" s="23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA13" s="24">
         <f t="shared" si="3"/>
-        <v>237.16</v>
+        <v>216.09</v>
       </c>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
@@ -3782,19 +4063,23 @@
       <c r="AG13" s="19"/>
       <c r="AH13" s="25">
         <f t="shared" si="4"/>
-        <v>-3.2000000000000015E-2</v>
+        <v>-1.7772727272727256E-2</v>
       </c>
       <c r="AI13" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ13" s="21">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="AM13" s="11">
+        <f>SUM(AM7:AM12)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>164</v>
@@ -3805,107 +4090,103 @@
       <c r="E14" s="19"/>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>6.4226162893325647</v>
+        <v>5.5339859052946636</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v>9.0829510622924747</v>
+        <v>7.8262379212492643</v>
       </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
-        <v>10.155048005794951</v>
+        <v>8.75</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="0"/>
-        <v>10.488088481701515</v>
+        <v>9.0369611411506394</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
-        <v>11.489125293076057</v>
+        <v>9.8994949366116654</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="0"/>
-        <v>14.832396974191326</v>
+        <v>12.780193008453876</v>
       </c>
       <c r="L14" s="21">
         <f t="shared" si="0"/>
-        <v>25.951288749407073</v>
+        <v>22.360679774997898</v>
       </c>
       <c r="M14" s="21">
         <f t="shared" si="0"/>
-        <v>6.4631379297315146</v>
+        <v>5.5689009892301105</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="0"/>
-        <v>3.6478009283544006</v>
+        <v>3.1430927854685606</v>
       </c>
       <c r="O14" s="20">
         <f t="shared" si="0"/>
-        <v>1.3248845794770843</v>
+        <v>1.1415741278435239</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="1"/>
-        <v>0.9128709291752769</v>
+        <v>0.78656650620711577</v>
       </c>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>0.58028845747399715</v>
+        <v>0.5</v>
       </c>
       <c r="R14" s="20">
         <f t="shared" si="1"/>
-        <v>4.0928314203657346</v>
+        <v>3.5265490530191488</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="1"/>
-        <v>2.4428365215969201</v>
+        <v>2.1048467276349228</v>
       </c>
       <c r="T14" s="20">
         <f t="shared" si="1"/>
-        <v>0.88640526042791834</v>
+        <v>0.76376261582597338</v>
       </c>
       <c r="U14" s="20">
         <f t="shared" si="1"/>
-        <v>0.61098540688040537</v>
+        <v>0.52644973289666352</v>
       </c>
       <c r="V14" s="20">
         <f t="shared" si="1"/>
-        <v>0.38765090486637049</v>
+        <v>0.33401569501642314</v>
       </c>
       <c r="W14" s="19"/>
       <c r="X14" s="22">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="Y14" s="16">
         <f t="shared" si="2"/>
-        <v>0.33</v>
+        <v>0.245</v>
       </c>
       <c r="Z14" s="23">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA14" s="24">
         <f t="shared" si="3"/>
-        <v>331.24</v>
-      </c>
-      <c r="AB14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
+        <v>237.16</v>
+      </c>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="25">
         <f t="shared" si="4"/>
-        <v>3.7575757575757851E-3</v>
+        <v>-3.2000000000000015E-2</v>
       </c>
       <c r="AI14" s="21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ14" s="21">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.35">
@@ -3921,112 +4202,112 @@
       <c r="E15" s="19"/>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
-        <v>7.0710678118654755</v>
+        <v>6.4226162893325647</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.0829510622924747</v>
       </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>11.180339887498949</v>
+        <v>10.155048005794951</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="0"/>
-        <v>11.547005383792516</v>
+        <v>10.488088481701515</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="0"/>
-        <v>12.649110640673518</v>
+        <v>11.489125293076057</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
-        <v>16.329931618554522</v>
+        <v>14.832396974191326</v>
       </c>
       <c r="L15" s="21">
         <f t="shared" si="0"/>
-        <v>28.571428571428573</v>
+        <v>25.951288749407073</v>
       </c>
       <c r="M15" s="21">
         <f t="shared" si="0"/>
-        <v>7.1156806696482002</v>
+        <v>6.4631379297315146</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="0"/>
-        <v>4.0160966445124942</v>
+        <v>3.6478009283544006</v>
       </c>
       <c r="O15" s="20">
         <f t="shared" si="0"/>
-        <v>1.4586499149789456</v>
+        <v>1.3248845794770843</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="1"/>
-        <v>1.0050378152592121</v>
+        <v>0.9128709291752769</v>
       </c>
       <c r="Q15" s="20">
         <f t="shared" si="1"/>
-        <v>0.63887656499993994</v>
+        <v>0.58028845747399715</v>
       </c>
       <c r="R15" s="20">
         <f t="shared" si="1"/>
-        <v>4.5060590905933298</v>
+        <v>4.0928314203657346</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="1"/>
-        <v>2.6894744944055273</v>
+        <v>2.4428365215969201</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" si="1"/>
-        <v>0.9759000729485332</v>
+        <v>0.88640526042791834</v>
       </c>
       <c r="U15" s="20">
         <f t="shared" si="1"/>
-        <v>0.67267279399631252</v>
+        <v>0.61098540688040537</v>
       </c>
       <c r="V15" s="20">
         <f t="shared" si="1"/>
-        <v>0.42678959977631992</v>
+        <v>0.38765090486637049</v>
       </c>
       <c r="W15" s="19"/>
       <c r="X15" s="22">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Y15" s="16">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Z15" s="23">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="22" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="AA15" s="24">
+        <f t="shared" si="3"/>
+        <v>331.24</v>
       </c>
       <c r="AB15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AC15" s="24">
-        <f>$Z15*$Z15*AC$2</f>
-        <v>400</v>
+      <c r="AC15" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="AD15" s="22"/>
       <c r="AE15" s="22"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="25">
-        <f>(AC15-X15)/X15</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3.7575757575757851E-3</v>
       </c>
       <c r="AI15" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AJ15" s="21">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>158</v>
@@ -4036,206 +4317,206 @@
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="21">
-        <f t="shared" ref="F16:O28" si="6">SQRT($Y16*1000/F$2)</f>
-        <v>8.3666002653407556</v>
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
       </c>
       <c r="G16" s="21">
-        <f t="shared" si="6"/>
-        <v>11.832159566199232</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="6"/>
-        <v>13.228756555322953</v>
+        <f t="shared" si="0"/>
+        <v>11.180339887498949</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="6"/>
-        <v>13.662601021279464</v>
+        <f t="shared" si="0"/>
+        <v>11.547005383792516</v>
       </c>
       <c r="J16" s="21">
-        <f t="shared" si="6"/>
-        <v>14.966629547095765</v>
+        <f t="shared" si="0"/>
+        <v>12.649110640673518</v>
       </c>
       <c r="K16" s="21">
-        <f t="shared" si="6"/>
-        <v>19.321835661585919</v>
+        <f t="shared" si="0"/>
+        <v>16.329931618554522</v>
       </c>
       <c r="L16" s="21">
-        <f t="shared" si="6"/>
-        <v>33.806170189140666</v>
+        <f t="shared" si="0"/>
+        <v>28.571428571428573</v>
       </c>
       <c r="M16" s="21">
-        <f t="shared" si="6"/>
-        <v>8.419386910539691</v>
+        <f t="shared" si="0"/>
+        <v>7.1156806696482002</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="6"/>
-        <v>4.7519096331149147</v>
+        <f t="shared" si="0"/>
+        <v>4.0160966445124942</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="6"/>
-        <v>1.7258978545253827</v>
+        <f t="shared" si="0"/>
+        <v>1.4586499149789456</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" ref="P16:V28" si="7">SQRT($Y16*1000/P$2)</f>
-        <v>1.1891767800211264</v>
+        <f t="shared" si="1"/>
+        <v>1.0050378152592121</v>
       </c>
       <c r="Q16" s="20">
-        <f t="shared" si="7"/>
-        <v>0.7559289460184544</v>
-      </c>
-      <c r="R16" s="21">
-        <f t="shared" si="7"/>
-        <v>5.331641017462287</v>
+        <f t="shared" si="1"/>
+        <v>0.63887656499993994</v>
+      </c>
+      <c r="R16" s="20">
+        <f t="shared" si="1"/>
+        <v>4.5060590905933298</v>
       </c>
       <c r="S16" s="20">
-        <f t="shared" si="7"/>
-        <v>3.1822291367029201</v>
+        <f t="shared" si="1"/>
+        <v>2.6894744944055273</v>
       </c>
       <c r="T16" s="20">
-        <f t="shared" si="7"/>
-        <v>1.1547005383792515</v>
+        <f t="shared" si="1"/>
+        <v>0.9759000729485332</v>
       </c>
       <c r="U16" s="20">
-        <f t="shared" si="7"/>
-        <v>0.79591718344054341</v>
+        <f t="shared" si="1"/>
+        <v>0.67267279399631252</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="7"/>
-        <v>0.50498426457477252</v>
+        <f t="shared" si="1"/>
+        <v>0.42678959977631992</v>
       </c>
       <c r="W16" s="19"/>
       <c r="X16" s="22">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="Y16" s="16">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="Z16" s="23">
-        <v>34</v>
-      </c>
-      <c r="AA16" s="24">
-        <f>$Z16*$Z16*AA$2</f>
-        <v>566.43999999999994</v>
+        <v>10</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="AB16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AC16" s="22" t="s">
-        <v>13</v>
+      <c r="AC16" s="24">
+        <f>$Z16*$Z16*AC$2</f>
+        <v>400</v>
       </c>
       <c r="AD16" s="22"/>
       <c r="AE16" s="22"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="25">
-        <f>(AA16-X16)/X16</f>
-        <v>1.1499999999999894E-2</v>
+        <f>(AC16-X16)/X16</f>
+        <v>0</v>
       </c>
       <c r="AI16" s="21">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AJ16" s="21">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B17" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>154</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="21">
-        <f t="shared" si="6"/>
-        <v>9.4868329805051381</v>
+        <f t="shared" ref="F17:O29" si="6">SQRT($Y17*1000/F$2)</f>
+        <v>8.3666002653407556</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="6"/>
-        <v>13.416407864998739</v>
+        <v>11.832159566199232</v>
       </c>
       <c r="H17" s="21">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13.228756555322953</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="6"/>
-        <v>15.491933384829668</v>
+        <v>13.662601021279464</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="6"/>
-        <v>16.970562748477139</v>
+        <v>14.966629547095765</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="6"/>
-        <v>21.908902300206645</v>
+        <v>19.321835661585919</v>
       </c>
       <c r="L17" s="21">
         <f t="shared" si="6"/>
-        <v>38.332593899996397</v>
+        <v>33.806170189140666</v>
       </c>
       <c r="M17" s="21">
         <f t="shared" si="6"/>
-        <v>9.5466874101087615</v>
-      </c>
-      <c r="N17" s="21">
-        <f t="shared" si="6"/>
-        <v>5.3881590608032468</v>
+        <v>8.419386910539691</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" si="6"/>
+        <v>4.7519096331149147</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" si="6"/>
-        <v>1.9569842191603266</v>
+        <v>1.7258978545253827</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="7"/>
-        <v>1.3483997249264841</v>
+        <f t="shared" ref="P17:V29" si="7">SQRT($Y17*1000/P$2)</f>
+        <v>1.1891767800211264</v>
       </c>
       <c r="Q17" s="20">
         <f t="shared" si="7"/>
-        <v>0.85714285714285721</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="R17" s="21">
         <f t="shared" si="7"/>
-        <v>6.04551266231854</v>
+        <v>5.331641017462287</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="7"/>
-        <v>3.6083086759455822</v>
+        <v>3.1822291367029201</v>
       </c>
       <c r="T17" s="20">
         <f t="shared" si="7"/>
-        <v>1.3093073414159542</v>
+        <v>1.1547005383792515</v>
       </c>
       <c r="U17" s="20">
         <f t="shared" si="7"/>
-        <v>0.90248525639428023</v>
+        <v>0.79591718344054341</v>
       </c>
       <c r="V17" s="20">
         <f t="shared" si="7"/>
-        <v>0.5725983343138682</v>
+        <v>0.50498426457477252</v>
       </c>
       <c r="W17" s="19"/>
       <c r="X17" s="22">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="Y17" s="16">
         <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Z17" s="23">
-        <v>17</v>
-      </c>
-      <c r="AA17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" s="24">
+        <f>$Z17*$Z17*AA$2</f>
+        <v>566.43999999999994</v>
+      </c>
+      <c r="AB17" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="AB17" s="24">
-        <f>$Z17*$Z17*AB$2</f>
-        <v>722.5</v>
       </c>
       <c r="AC17" s="22" t="s">
         <v>13</v>
@@ -4245,15 +4526,15 @@
       <c r="AF17" s="21"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="25">
-        <f>(AB17-X17)/X17</f>
-        <v>3.472222222222222E-3</v>
+        <f>(AA17-X17)/X17</f>
+        <v>1.1499999999999894E-2</v>
       </c>
       <c r="AI17" s="21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AJ17" s="21">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.35">
@@ -4261,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>152</v>
@@ -4269,100 +4550,107 @@
       <c r="E18" s="19"/>
       <c r="F18" s="21">
         <f t="shared" si="6"/>
-        <v>10.124228365658293</v>
+        <v>9.4868329805051381</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="6"/>
-        <v>14.317821063276353</v>
+        <v>13.416407864998739</v>
       </c>
       <c r="H18" s="21">
         <f t="shared" si="6"/>
-        <v>16.007810593582121</v>
+        <v>15</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="6"/>
-        <v>16.532795690182994</v>
+        <v>15.491933384829668</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="6"/>
-        <v>18.110770276274835</v>
+        <v>16.970562748477139</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="6"/>
-        <v>23.380903889000241</v>
-      </c>
-      <c r="L18" s="27">
-        <f t="shared" si="6"/>
-        <v>40.908060180789583</v>
+        <v>21.908902300206645</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="6"/>
+        <v>38.332593899996397</v>
       </c>
       <c r="M18" s="21">
         <f t="shared" si="6"/>
-        <v>10.188104257143738</v>
+        <v>9.5466874101087615</v>
       </c>
       <c r="N18" s="21">
         <f t="shared" si="6"/>
-        <v>5.7501753128954478</v>
+        <v>5.3881590608032468</v>
       </c>
       <c r="O18" s="20">
         <f t="shared" si="6"/>
-        <v>2.0884688476631807</v>
+        <v>1.9569842191603266</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="7"/>
-        <v>1.4389951600707593</v>
+        <v>1.3483997249264841</v>
       </c>
       <c r="Q18" s="20">
         <f t="shared" si="7"/>
-        <v>0.91473203391897839</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="R18" s="21">
         <f t="shared" si="7"/>
-        <v>6.451694775966506</v>
+        <v>6.04551266231854</v>
       </c>
       <c r="S18" s="20">
         <f t="shared" si="7"/>
-        <v>3.850741456514398</v>
+        <v>3.6083086759455822</v>
       </c>
       <c r="T18" s="20">
         <f t="shared" si="7"/>
-        <v>1.3972762620115438</v>
+        <v>1.3093073414159542</v>
       </c>
       <c r="U18" s="20">
         <f t="shared" si="7"/>
-        <v>0.9631208698573358</v>
+        <v>0.90248525639428023</v>
       </c>
       <c r="V18" s="20">
         <f t="shared" si="7"/>
-        <v>0.61106971212646777</v>
+        <v>0.5725983343138682</v>
       </c>
       <c r="W18" s="19"/>
-      <c r="X18" s="11">
-        <v>820</v>
+      <c r="X18" s="22">
+        <v>720</v>
       </c>
       <c r="Y18" s="16">
         <f t="shared" si="2"/>
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="Z18" s="23">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="AB18" s="24">
         <f>$Z18*$Z18*AB$2</f>
-        <v>810</v>
+        <v>722.5</v>
+      </c>
+      <c r="AC18" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
+      <c r="AF18" s="21"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="25">
         <f>(AB18-X18)/X18</f>
-        <v>-1.2195121951219513E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="AI18" s="21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ18" s="21">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.35">
@@ -4370,107 +4658,101 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="21">
         <f t="shared" si="6"/>
-        <v>10.246950765959598</v>
+        <v>10.124228365658293</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="6"/>
-        <v>14.491376746189438</v>
+        <v>14.317821063276353</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="6"/>
-        <v>16.201851746019649</v>
+        <v>16.007810593582121</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="6"/>
-        <v>16.733200530681511</v>
+        <v>16.532795690182994</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="6"/>
-        <v>18.330302779823359</v>
+        <v>18.110770276274835</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="6"/>
-        <v>23.664319132398465</v>
+        <v>23.380903889000241</v>
       </c>
       <c r="L19" s="27">
         <f t="shared" si="6"/>
-        <v>41.403933560541255</v>
+        <v>40.908060180789583</v>
       </c>
       <c r="M19" s="21">
         <f t="shared" si="6"/>
-        <v>10.311600938944963</v>
+        <v>10.188104257143738</v>
       </c>
       <c r="N19" s="21">
         <f t="shared" si="6"/>
-        <v>5.8198769524737788</v>
+        <v>5.7501753128954478</v>
       </c>
       <c r="O19" s="20">
         <f t="shared" si="6"/>
-        <v>2.1137845458757094</v>
+        <v>2.0884688476631807</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="7"/>
-        <v>1.4564381625088383</v>
+        <v>1.4389951600707593</v>
       </c>
       <c r="Q19" s="20">
         <f t="shared" si="7"/>
-        <v>0.92582009977255142</v>
+        <v>0.91473203391897839</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="7"/>
-        <v>6.5298999922379704</v>
+        <v>6.451694775966506</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" si="7"/>
-        <v>3.8974188147697855</v>
+        <v>3.850741456514398</v>
       </c>
       <c r="T19" s="20">
         <f t="shared" si="7"/>
-        <v>1.4142135623730951</v>
+        <v>1.3972762620115438</v>
       </c>
       <c r="U19" s="20">
         <f t="shared" si="7"/>
-        <v>0.97479548847124409</v>
+        <v>0.9631208698573358</v>
       </c>
       <c r="V19" s="20">
         <f t="shared" si="7"/>
-        <v>0.61847688817140589</v>
+        <v>0.61106971212646777</v>
       </c>
       <c r="W19" s="19"/>
       <c r="X19" s="11">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="Y19" s="16">
         <f t="shared" si="2"/>
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="Z19" s="23">
         <v>18</v>
-      </c>
-      <c r="AA19" s="22" t="s">
-        <v>13</v>
       </c>
       <c r="AB19" s="24">
         <f>$Z19*$Z19*AB$2</f>
         <v>810</v>
-      </c>
-      <c r="AC19" s="22" t="s">
-        <v>13</v>
       </c>
       <c r="AD19" s="22"/>
       <c r="AE19" s="22"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="25">
         <f>(AB19-X19)/X19</f>
-        <v>-3.5714285714285712E-2</v>
+        <v>-1.2195121951219513E-2</v>
       </c>
       <c r="AI19" s="21">
         <v>10</v>
@@ -4482,216 +4764,224 @@
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B20" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="21">
         <f t="shared" si="6"/>
-        <v>11.180339887498949</v>
+        <v>10.246950765959598</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="6"/>
-        <v>15.811388300841896</v>
+        <v>14.491376746189438</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="6"/>
-        <v>17.677669529663689</v>
+        <v>16.201851746019649</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="6"/>
-        <v>18.257418583505537</v>
+        <v>16.733200530681511</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>18.330302779823359</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="6"/>
-        <v>25.819888974716111</v>
+        <v>23.664319132398465</v>
       </c>
       <c r="L20" s="27">
         <f t="shared" si="6"/>
-        <v>45.175395145262563</v>
+        <v>41.403933560541255</v>
       </c>
       <c r="M20" s="21">
         <f t="shared" si="6"/>
-        <v>11.250879009260238</v>
+        <v>10.311600938944963</v>
       </c>
       <c r="N20" s="21">
         <f t="shared" si="6"/>
-        <v>6.350006350009525</v>
+        <v>5.8198769524737788</v>
       </c>
       <c r="O20" s="20">
         <f t="shared" si="6"/>
-        <v>2.3063280200722125</v>
+        <v>2.1137845458757094</v>
       </c>
       <c r="P20" s="20">
         <f t="shared" si="7"/>
-        <v>1.5891043154093205</v>
+        <v>1.4564381625088383</v>
       </c>
       <c r="Q20" s="20">
         <f t="shared" si="7"/>
-        <v>1.0101525445522108</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R20" s="21">
         <f t="shared" si="7"/>
-        <v>7.124704998790965</v>
+        <v>6.5298999922379704</v>
       </c>
       <c r="S20" s="20">
         <f t="shared" si="7"/>
-        <v>4.2524325556256226</v>
+        <v>3.8974188147697855</v>
       </c>
       <c r="T20" s="20">
         <f t="shared" si="7"/>
-        <v>1.5430334996209192</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="U20" s="20">
         <f t="shared" si="7"/>
-        <v>1.0635890745287926</v>
+        <v>0.97479548847124409</v>
       </c>
       <c r="V20" s="20">
         <f t="shared" si="7"/>
-        <v>0.67481360848242999</v>
+        <v>0.61847688817140589</v>
       </c>
       <c r="W20" s="19"/>
       <c r="X20" s="11">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="Z20" s="23">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="AB20" s="24">
         <f>$Z20*$Z20*AB$2</f>
-        <v>1000</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="AC20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="25">
         <f>(AB20-X20)/X20</f>
-        <v>0</v>
+        <v>-3.5714285714285712E-2</v>
       </c>
       <c r="AI20" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ20" s="21">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B21" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="21">
         <f t="shared" si="6"/>
-        <v>12.24744871391589</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="6"/>
-        <v>17.320508075688775</v>
+        <v>15.811388300841896</v>
       </c>
       <c r="H21" s="21">
         <f t="shared" si="6"/>
-        <v>19.364916731037084</v>
+        <v>17.677669529663689</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="6"/>
+        <v>18.257418583505537</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J21" s="21">
-        <f t="shared" si="6"/>
-        <v>21.908902300206645</v>
-      </c>
       <c r="K21" s="21">
         <f t="shared" si="6"/>
-        <v>28.284271247461902</v>
+        <v>25.819888974716111</v>
       </c>
       <c r="L21" s="27">
         <f t="shared" si="6"/>
-        <v>49.487165930539355</v>
+        <v>45.175395145262563</v>
       </c>
       <c r="M21" s="21">
         <f t="shared" si="6"/>
-        <v>12.324720450266415</v>
+        <v>11.250879009260238</v>
       </c>
       <c r="N21" s="21">
         <f t="shared" si="6"/>
-        <v>6.9560834364025235</v>
+        <v>6.350006350009525</v>
       </c>
       <c r="O21" s="20">
         <f t="shared" si="6"/>
-        <v>2.5264557631995568</v>
+        <v>2.3063280200722125</v>
       </c>
       <c r="P21" s="20">
         <f t="shared" si="7"/>
-        <v>1.7407765595569784</v>
+        <v>1.5891043154093205</v>
       </c>
       <c r="Q21" s="20">
         <f t="shared" si="7"/>
-        <v>1.1065666703449764</v>
+        <v>1.0101525445522108</v>
       </c>
       <c r="R21" s="21">
         <f t="shared" si="7"/>
-        <v>7.804723286815257</v>
+        <v>7.124704998790965</v>
       </c>
       <c r="S21" s="20">
         <f t="shared" si="7"/>
-        <v>4.6583064699709915</v>
+        <v>4.2524325556256226</v>
       </c>
       <c r="T21" s="20">
         <f t="shared" si="7"/>
-        <v>1.6903085094570331</v>
+        <v>1.5430334996209192</v>
       </c>
       <c r="U21" s="20">
         <f t="shared" si="7"/>
-        <v>1.1651034560709261</v>
+        <v>1.0635890745287926</v>
       </c>
       <c r="V21" s="20">
         <f t="shared" si="7"/>
-        <v>0.73922127095457291</v>
+        <v>0.67481360848242999</v>
       </c>
       <c r="W21" s="19"/>
       <c r="X21" s="11">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Y21" s="16">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB21" s="24">
         <f>$Z21*$Z21*AB$2</f>
-        <v>1210</v>
+        <v>1000</v>
       </c>
       <c r="AG21" s="19"/>
       <c r="AH21" s="25">
         <f>(AB21-X21)/X21</f>
-        <v>8.3333333333333332E-3</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ21" s="21">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.35">
@@ -4699,115 +4989,106 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="21">
         <f t="shared" si="6"/>
-        <v>15.811388300841896</v>
+        <v>12.24744871391589</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="6"/>
-        <v>22.360679774997898</v>
+        <v>17.320508075688775</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>19.364916731037084</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="6"/>
-        <v>25.819888974716111</v>
+        <v>20</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="6"/>
+        <v>21.908902300206645</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" si="6"/>
         <v>28.284271247461902</v>
       </c>
-      <c r="K22" s="21">
-        <f t="shared" si="6"/>
-        <v>36.514837167011073</v>
-      </c>
       <c r="L22" s="27">
         <f t="shared" si="6"/>
-        <v>63.887656499993994</v>
+        <v>49.487165930539355</v>
       </c>
       <c r="M22" s="21">
         <f t="shared" si="6"/>
-        <v>15.911145683514601</v>
+        <v>12.324720450266415</v>
       </c>
       <c r="N22" s="21">
         <f t="shared" si="6"/>
-        <v>8.9802651013387447</v>
+        <v>6.9560834364025235</v>
       </c>
       <c r="O22" s="20">
         <f t="shared" si="6"/>
-        <v>3.261640365267211</v>
+        <v>2.5264557631995568</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="7"/>
-        <v>2.2473328748774737</v>
+        <v>1.7407765595569784</v>
       </c>
       <c r="Q22" s="20">
         <f t="shared" si="7"/>
-        <v>1.4285714285714286</v>
+        <v>1.1065666703449764</v>
       </c>
       <c r="R22" s="21">
         <f t="shared" si="7"/>
-        <v>10.075854437197568</v>
-      </c>
-      <c r="S22" s="21">
-        <f t="shared" si="7"/>
-        <v>6.0138477932426371</v>
+        <v>7.804723286815257</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="7"/>
+        <v>4.6583064699709915</v>
       </c>
       <c r="T22" s="20">
         <f t="shared" si="7"/>
-        <v>2.1821789023599236</v>
+        <v>1.6903085094570331</v>
       </c>
       <c r="U22" s="20">
         <f t="shared" si="7"/>
-        <v>1.5041420939904671</v>
+        <v>1.1651034560709261</v>
       </c>
       <c r="V22" s="20">
         <f t="shared" si="7"/>
-        <v>0.95433055718978033</v>
+        <v>0.73922127095457291</v>
       </c>
       <c r="W22" s="19"/>
       <c r="X22" s="11">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="Y22" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z22" s="23">
-        <v>26</v>
-      </c>
-      <c r="AA22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="24">
-        <f>$Z22*$Z22*AD$2</f>
-        <v>2028</v>
+        <v>22</v>
+      </c>
+      <c r="AB22" s="24">
+        <f>$Z22*$Z22*AB$2</f>
+        <v>1210</v>
       </c>
       <c r="AG22" s="19"/>
       <c r="AH22" s="25">
-        <f>(AD22-X22)/X22</f>
-        <v>1.4E-2</v>
+        <f>(AB22-X22)/X22</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AI22" s="21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ22" s="21">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.35">
@@ -4815,90 +5096,90 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="21">
         <f t="shared" si="6"/>
-        <v>16.583123951777001</v>
+        <v>15.811388300841896</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="6"/>
-        <v>23.45207879911715</v>
+        <v>22.360679774997898</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" si="6"/>
-        <v>26.220221204253789</v>
+        <v>25</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="6"/>
-        <v>27.080128015453202</v>
+        <v>25.819888974716111</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="6"/>
-        <v>29.664793948382652</v>
+        <v>28.284271247461902</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="6"/>
-        <v>38.297084310253524</v>
+        <v>36.514837167011073</v>
       </c>
       <c r="L23" s="27">
         <f t="shared" si="6"/>
-        <v>67.005939426048997</v>
+        <v>63.887656499993994</v>
       </c>
       <c r="M23" s="21">
         <f t="shared" si="6"/>
-        <v>16.687750377394426</v>
+        <v>15.911145683514601</v>
       </c>
       <c r="N23" s="21">
         <f t="shared" si="6"/>
-        <v>9.4185814971976978</v>
+        <v>8.9802651013387447</v>
       </c>
       <c r="O23" s="20">
         <f t="shared" si="6"/>
-        <v>3.4208372746411762</v>
+        <v>3.261640365267211</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="7"/>
-        <v>2.3570226039551585</v>
+        <v>2.2473328748774737</v>
       </c>
       <c r="Q23" s="20">
         <f t="shared" si="7"/>
-        <v>1.4982983545287878</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="R23" s="21">
         <f t="shared" si="7"/>
-        <v>10.567645286607291</v>
+        <v>10.075854437197568</v>
       </c>
       <c r="S23" s="21">
         <f t="shared" si="7"/>
-        <v>6.3073767771014175</v>
+        <v>6.0138477932426371</v>
       </c>
       <c r="T23" s="20">
         <f t="shared" si="7"/>
-        <v>2.2886885410853175</v>
+        <v>2.1821789023599236</v>
       </c>
       <c r="U23" s="20">
         <f t="shared" si="7"/>
-        <v>1.5775575370823816</v>
+        <v>1.5041420939904671</v>
       </c>
       <c r="V23" s="20">
         <f t="shared" si="7"/>
-        <v>1.0009103324597926</v>
+        <v>0.95433055718978033</v>
       </c>
       <c r="W23" s="19"/>
       <c r="X23" s="11">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Y23" s="16">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA23" s="22" t="s">
         <v>13</v>
@@ -4911,21 +5192,19 @@
       </c>
       <c r="AD23" s="24">
         <f>$Z23*$Z23*AD$2</f>
-        <v>2187</v>
-      </c>
-      <c r="AE23" s="22"/>
+        <v>2028</v>
+      </c>
       <c r="AG23" s="19"/>
       <c r="AH23" s="25">
         <f>(AD23-X23)/X23</f>
-        <v>-5.909090909090909E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AI23" s="21">
-        <f>Z23*AI$3</f>
-        <v>14.040000000000001</v>
+        <v>14</v>
       </c>
       <c r="AJ23" s="21">
         <f t="shared" si="5"/>
-        <v>28.080000000000002</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.35">
@@ -4933,116 +5212,117 @@
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="21">
         <f t="shared" si="6"/>
-        <v>21.213203435596427</v>
+        <v>16.583123951777001</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>23.45207879911715</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="6"/>
-        <v>33.541019662496844</v>
+        <v>26.220221204253789</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="6"/>
-        <v>34.641016151377549</v>
+        <v>27.080128015453202</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="6"/>
-        <v>37.947331922020552</v>
+        <v>29.664793948382652</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="6"/>
-        <v>48.989794855663561</v>
+        <v>38.297084310253524</v>
       </c>
       <c r="L24" s="27">
         <f t="shared" si="6"/>
-        <v>85.714285714285722</v>
+        <v>67.005939426048997</v>
       </c>
       <c r="M24" s="21">
         <f t="shared" si="6"/>
-        <v>21.347042008944602</v>
+        <v>16.687750377394426</v>
       </c>
       <c r="N24" s="21">
         <f t="shared" si="6"/>
-        <v>12.048289933537482</v>
+        <v>9.4185814971976978</v>
       </c>
       <c r="O24" s="20">
         <f t="shared" si="6"/>
-        <v>4.375949744936837</v>
+        <v>3.4208372746411762</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="7"/>
-        <v>3.0151134457776365</v>
+        <v>2.3570226039551585</v>
       </c>
       <c r="Q24" s="20">
         <f t="shared" si="7"/>
-        <v>1.9166296949998198</v>
+        <v>1.4982983545287878</v>
       </c>
       <c r="R24" s="21">
         <f t="shared" si="7"/>
-        <v>13.518177271779988</v>
+        <v>10.567645286607291</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="7"/>
-        <v>8.0684234832165824</v>
+        <v>6.3073767771014175</v>
       </c>
       <c r="T24" s="20">
         <f t="shared" si="7"/>
-        <v>2.9277002188455996</v>
+        <v>2.2886885410853175</v>
       </c>
       <c r="U24" s="20">
         <f t="shared" si="7"/>
-        <v>2.0180183819889375</v>
+        <v>1.5775575370823816</v>
       </c>
       <c r="V24" s="20">
         <f t="shared" si="7"/>
-        <v>1.2803687993289599</v>
+        <v>1.0009103324597926</v>
       </c>
       <c r="W24" s="19"/>
       <c r="X24" s="11">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="Y24" s="16">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z24" s="23">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AA24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AB24" s="24">
-        <f>$Z24*$Z24*AB$2</f>
-        <v>3610</v>
+      <c r="AB24" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="AC24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AD24" s="22" t="s">
-        <v>13</v>
+      <c r="AD24" s="24">
+        <f>$Z24*$Z24*AD$2</f>
+        <v>2187</v>
       </c>
       <c r="AE24" s="22"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="25">
-        <f>(AB24-X24)/X24</f>
-        <v>2.7777777777777779E-3</v>
+        <f>(AD24-X24)/X24</f>
+        <v>-5.909090909090909E-3</v>
       </c>
       <c r="AI24" s="21">
-        <v>20</v>
+        <f>Z24*AI$3</f>
+        <v>14.040000000000001</v>
       </c>
       <c r="AJ24" s="21">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>28.080000000000002</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.35">
@@ -5050,96 +5330,97 @@
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="21">
         <f t="shared" si="6"/>
-        <v>22.079402165819616</v>
+        <v>21.213203435596427</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="6"/>
-        <v>31.22498999199199</v>
+        <v>30</v>
       </c>
       <c r="H25" s="21">
         <f t="shared" si="6"/>
-        <v>34.910600109422354</v>
+        <v>33.541019662496844</v>
       </c>
       <c r="I25" s="21">
         <f t="shared" si="6"/>
-        <v>36.055512754639892</v>
+        <v>34.641016151377549</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="6"/>
-        <v>39.496835316262995</v>
-      </c>
-      <c r="K25" s="20">
-        <f t="shared" si="6"/>
-        <v>50.990195135927848</v>
+        <v>37.947331922020552</v>
+      </c>
+      <c r="K25" s="21">
+        <f t="shared" si="6"/>
+        <v>48.989794855663561</v>
       </c>
       <c r="L25" s="27">
         <f t="shared" si="6"/>
-        <v>89.21425711997712</v>
+        <v>85.714285714285722</v>
       </c>
       <c r="M25" s="21">
         <f t="shared" si="6"/>
-        <v>22.218705769597591</v>
+        <v>21.347042008944602</v>
       </c>
       <c r="N25" s="21">
         <f t="shared" si="6"/>
-        <v>12.540257753177524</v>
+        <v>12.048289933537482</v>
       </c>
       <c r="O25" s="20">
         <f t="shared" si="6"/>
-        <v>4.554632899703754</v>
+        <v>4.375949744936837</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="7"/>
-        <v>3.138229572304239</v>
+        <v>3.0151134457776365</v>
       </c>
       <c r="Q25" s="20">
         <f t="shared" si="7"/>
-        <v>1.9948914348241344</v>
+        <v>1.9166296949998198</v>
       </c>
       <c r="R25" s="21">
         <f t="shared" si="7"/>
-        <v>14.070165000710125</v>
+        <v>13.518177271779988</v>
       </c>
       <c r="S25" s="21">
         <f t="shared" si="7"/>
-        <v>8.3978814171530303</v>
+        <v>8.0684234832165824</v>
       </c>
       <c r="T25" s="20">
         <f t="shared" si="7"/>
-        <v>3.0472470011002204</v>
+        <v>2.9277002188455996</v>
       </c>
       <c r="U25" s="20">
         <f t="shared" si="7"/>
-        <v>2.1004201260420148</v>
+        <v>2.0180183819889375</v>
       </c>
       <c r="V25" s="20">
         <f t="shared" si="7"/>
-        <v>1.3326500981701856</v>
+        <v>1.2803687993289599</v>
       </c>
       <c r="W25" s="19"/>
       <c r="X25" s="11">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="Y25" s="16">
         <f t="shared" si="2"/>
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Z25" s="23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AA25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AB25" s="22" t="s">
-        <v>13</v>
+      <c r="AB25" s="24">
+        <f>$Z25*$Z25*AB$2</f>
+        <v>3610</v>
       </c>
       <c r="AC25" s="22" t="s">
         <v>13</v>
@@ -5147,24 +5428,18 @@
       <c r="AD25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AE25" s="24">
-        <f>$Z25*$Z25*AE$2</f>
-        <v>3872</v>
-      </c>
-      <c r="AF25" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="AE25" s="22"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="25">
-        <f>(AE25-X25)/X25</f>
-        <v>-7.1794871794871795E-3</v>
+        <f>(AB25-X25)/X25</f>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI25" s="21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AJ25" s="21">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.35">
@@ -5172,90 +5447,90 @@
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="21">
         <f t="shared" si="6"/>
-        <v>25.495097567963924</v>
+        <v>22.079402165819616</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" si="6"/>
+        <v>31.22498999199199</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="6"/>
+        <v>34.910600109422354</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="6"/>
         <v>36.055512754639892</v>
       </c>
-      <c r="H26" s="21">
-        <f t="shared" si="6"/>
-        <v>40.311288741492746</v>
-      </c>
-      <c r="I26" s="21">
-        <f t="shared" si="6"/>
-        <v>41.633319989322651</v>
-      </c>
       <c r="J26" s="21">
         <f t="shared" si="6"/>
-        <v>45.607017003965517</v>
+        <v>39.496835316262995</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" si="6"/>
-        <v>58.878405775518978</v>
+        <v>50.990195135927848</v>
       </c>
       <c r="L26" s="27">
         <f t="shared" si="6"/>
-        <v>103.01575072754255</v>
+        <v>89.21425711997712</v>
       </c>
       <c r="M26" s="21">
         <f t="shared" si="6"/>
-        <v>25.655951514244521</v>
+        <v>22.218705769597591</v>
       </c>
       <c r="N26" s="21">
         <f t="shared" si="6"/>
-        <v>14.48024237900867</v>
-      </c>
-      <c r="O26" s="21">
-        <f t="shared" si="6"/>
-        <v>5.2592370614077772</v>
+        <v>12.540257753177524</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="6"/>
+        <v>4.554632899703754</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="7"/>
-        <v>3.6237153766973935</v>
+        <v>3.138229572304239</v>
       </c>
       <c r="Q26" s="20">
         <f t="shared" si="7"/>
-        <v>2.3035022137995855</v>
+        <v>1.9948914348241344</v>
       </c>
       <c r="R26" s="21">
         <f t="shared" si="7"/>
-        <v>16.246827101404882</v>
+        <v>14.070165000710125</v>
       </c>
       <c r="S26" s="21">
         <f t="shared" si="7"/>
-        <v>9.6970381936317178</v>
+        <v>8.3978814171530303</v>
       </c>
       <c r="T26" s="20">
         <f t="shared" si="7"/>
-        <v>3.5186577527449843</v>
+        <v>3.0472470011002204</v>
       </c>
       <c r="U26" s="20">
         <f t="shared" si="7"/>
-        <v>2.4253562503633299</v>
+        <v>2.1004201260420148</v>
       </c>
       <c r="V26" s="20">
         <f t="shared" si="7"/>
-        <v>1.5388117858282757</v>
+        <v>1.3326500981701856</v>
       </c>
       <c r="W26" s="19"/>
       <c r="X26" s="11">
-        <v>5200</v>
+        <v>3900</v>
       </c>
       <c r="Y26" s="16">
         <f t="shared" si="2"/>
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" s="23">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA26" s="22" t="s">
         <v>13</v>
@@ -5271,7 +5546,7 @@
       </c>
       <c r="AE26" s="24">
         <f>$Z26*$Z26*AE$2</f>
-        <v>5000</v>
+        <v>3872</v>
       </c>
       <c r="AF26" s="22" t="s">
         <v>13</v>
@@ -5279,15 +5554,14 @@
       <c r="AG26" s="19"/>
       <c r="AH26" s="25">
         <f>(AE26-X26)/X26</f>
-        <v>-3.8461538461538464E-2</v>
+        <v>-7.1794871794871795E-3</v>
       </c>
       <c r="AI26" s="21">
-        <f>Z26*AI$3</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ26" s="21">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.35">
@@ -5295,90 +5569,90 @@
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="21">
         <f t="shared" si="6"/>
-        <v>26.457513110645905</v>
+        <v>25.495097567963924</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="6"/>
-        <v>37.416573867739416</v>
+        <v>36.055512754639892</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="6"/>
-        <v>41.83300132670378</v>
+        <v>40.311288741492746</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="6"/>
-        <v>43.204937989385733</v>
+        <v>41.633319989322651</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="6"/>
-        <v>47.328638264796929</v>
+        <v>45.607017003965517</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="6"/>
-        <v>61.101009266077867</v>
+        <v>58.878405775518978</v>
       </c>
       <c r="L27" s="27">
         <f t="shared" si="6"/>
-        <v>106.90449676496976</v>
+        <v>103.01575072754255</v>
       </c>
       <c r="M27" s="21">
         <f t="shared" si="6"/>
-        <v>26.624439139513733</v>
+        <v>25.655951514244521</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" si="6"/>
-        <v>15.026857675938214</v>
+        <v>14.48024237900867</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" si="6"/>
-        <v>5.4577682290981535</v>
+        <v>5.2592370614077772</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="7"/>
-        <v>3.760507165451775</v>
+        <v>3.6237153766973935</v>
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="7"/>
-        <v>2.3904572186687871</v>
+        <v>2.3035022137995855</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" si="7"/>
-        <v>16.8601292815584</v>
+        <v>16.246827101404882</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" si="7"/>
-        <v>10.063092108532553</v>
+        <v>9.6970381936317178</v>
       </c>
       <c r="T27" s="20">
         <f t="shared" si="7"/>
-        <v>3.6514837167011076</v>
+        <v>3.5186577527449843</v>
       </c>
       <c r="U27" s="20">
         <f t="shared" si="7"/>
-        <v>2.5169111285381685</v>
+        <v>2.4253562503633299</v>
       </c>
       <c r="V27" s="20">
         <f t="shared" si="7"/>
-        <v>1.5969004586013615</v>
+        <v>1.5388117858282757</v>
       </c>
       <c r="W27" s="19"/>
       <c r="X27" s="11">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="2"/>
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="Z27" s="23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA27" s="22" t="s">
         <v>13</v>
@@ -5394,7 +5668,7 @@
       </c>
       <c r="AE27" s="24">
         <f>$Z27*$Z27*AE$2</f>
-        <v>5408</v>
+        <v>5000</v>
       </c>
       <c r="AF27" s="22" t="s">
         <v>13</v>
@@ -5402,14 +5676,15 @@
       <c r="AG27" s="19"/>
       <c r="AH27" s="25">
         <f>(AE27-X27)/X27</f>
-        <v>-3.4285714285714287E-2</v>
+        <v>-3.8461538461538464E-2</v>
       </c>
       <c r="AI27" s="21">
-        <v>14</v>
+        <f>Z27*AI$3</f>
+        <v>13</v>
       </c>
       <c r="AJ27" s="21">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.35">
@@ -5417,90 +5692,90 @@
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="21">
         <f t="shared" si="6"/>
-        <v>37.080992435478315</v>
-      </c>
-      <c r="G28" s="20">
-        <f t="shared" si="6"/>
-        <v>52.440442408507579</v>
-      </c>
-      <c r="H28" s="20">
-        <f t="shared" si="6"/>
-        <v>58.630196997792872</v>
-      </c>
-      <c r="I28" s="20">
-        <f t="shared" si="6"/>
-        <v>60.553007081949829</v>
-      </c>
-      <c r="J28" s="20">
-        <f t="shared" si="6"/>
-        <v>66.332495807108003</v>
+        <v>26.457513110645905</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="6"/>
+        <v>37.416573867739416</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="6"/>
+        <v>41.83300132670378</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="6"/>
+        <v>43.204937989385733</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="6"/>
+        <v>47.328638264796929</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="6"/>
-        <v>85.63488385776752</v>
+        <v>61.101009266077867</v>
       </c>
       <c r="L28" s="27">
         <f t="shared" si="6"/>
-        <v>149.8298354528788</v>
+        <v>106.90449676496976</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="6"/>
-        <v>37.314944235401711</v>
+        <v>26.624439139513733</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" si="6"/>
-        <v>21.0605884793558</v>
+        <v>15.026857675938214</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="6"/>
-        <v>7.6492246860627873</v>
-      </c>
-      <c r="P28" s="21">
-        <f t="shared" si="7"/>
-        <v>5.2704627669472988</v>
+        <v>5.4577682290981535</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="7"/>
+        <v>3.760507165451775</v>
       </c>
       <c r="Q28" s="20">
         <f t="shared" si="7"/>
-        <v>3.3502969713024497</v>
+        <v>2.3904572186687871</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" si="7"/>
-        <v>23.629973222959151</v>
+        <v>16.8601292815584</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" si="7"/>
-        <v>14.103723233302309</v>
+        <v>10.063092108532553</v>
       </c>
       <c r="T28" s="20">
         <f t="shared" si="7"/>
-        <v>5.1176631571915898</v>
+        <v>3.6514837167011076</v>
       </c>
       <c r="U28" s="20">
         <f t="shared" si="7"/>
-        <v>3.5275258913333505</v>
+        <v>2.5169111285381685</v>
       </c>
       <c r="V28" s="20">
         <f t="shared" si="7"/>
-        <v>2.2381035427620102</v>
+        <v>1.5969004586013615</v>
       </c>
       <c r="W28" s="19"/>
       <c r="X28" s="11">
-        <v>11000</v>
+        <v>5600</v>
       </c>
       <c r="Y28" s="16">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="Z28" s="23">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA28" s="22" t="s">
         <v>13</v>
@@ -5514,65 +5789,1428 @@
       <c r="AD28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AE28" s="22" t="s">
+      <c r="AE28" s="24">
+        <f>$Z28*$Z28*AE$2</f>
+        <v>5408</v>
+      </c>
+      <c r="AF28" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="AF28" s="24">
-        <f>$Z28*$Z28*AF$2</f>
-        <v>10780</v>
       </c>
       <c r="AG28" s="19"/>
       <c r="AH28" s="25">
-        <f>(AF28-X28)/X28</f>
-        <v>-0.02</v>
+        <f>(AE28-X28)/X28</f>
+        <v>-3.4285714285714287E-2</v>
       </c>
       <c r="AI28" s="21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ28" s="21">
         <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.35">
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="21">
+        <f t="shared" si="6"/>
+        <v>37.080992435478315</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="6"/>
+        <v>52.440442408507579</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="6"/>
+        <v>58.630196997792872</v>
+      </c>
+      <c r="I29" s="20">
+        <f t="shared" si="6"/>
+        <v>60.553007081949829</v>
+      </c>
+      <c r="J29" s="20">
+        <f t="shared" si="6"/>
+        <v>66.332495807108003</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="6"/>
+        <v>85.63488385776752</v>
+      </c>
+      <c r="L29" s="27">
+        <f t="shared" si="6"/>
+        <v>149.8298354528788</v>
+      </c>
+      <c r="M29" s="21">
+        <f t="shared" si="6"/>
+        <v>37.314944235401711</v>
+      </c>
+      <c r="N29" s="21">
+        <f t="shared" si="6"/>
+        <v>21.0605884793558</v>
+      </c>
+      <c r="O29" s="21">
+        <f t="shared" si="6"/>
+        <v>7.6492246860627873</v>
+      </c>
+      <c r="P29" s="21">
+        <f t="shared" si="7"/>
+        <v>5.2704627669472988</v>
+      </c>
+      <c r="Q29" s="20">
+        <f t="shared" si="7"/>
+        <v>3.3502969713024497</v>
+      </c>
+      <c r="R29" s="21">
+        <f t="shared" si="7"/>
+        <v>23.629973222959151</v>
+      </c>
+      <c r="S29" s="21">
+        <f t="shared" si="7"/>
+        <v>14.103723233302309</v>
+      </c>
+      <c r="T29" s="20">
+        <f t="shared" si="7"/>
+        <v>5.1176631571915898</v>
+      </c>
+      <c r="U29" s="20">
+        <f t="shared" si="7"/>
+        <v>3.5275258913333505</v>
+      </c>
+      <c r="V29" s="20">
+        <f t="shared" si="7"/>
+        <v>2.2381035427620102</v>
+      </c>
+      <c r="W29" s="19"/>
+      <c r="X29" s="11">
+        <v>11000</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Z29" s="23">
+        <v>14</v>
+      </c>
+      <c r="AA29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF29" s="24">
+        <f>$Z29*$Z29*AF$2</f>
+        <v>10780</v>
+      </c>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="25">
+        <f>(AF29-X29)/X29</f>
+        <v>-0.02</v>
+      </c>
+      <c r="AI29" s="21">
+        <v>8</v>
+      </c>
+      <c r="AJ29" s="21">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="F29" s="11" t="s">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.35">
+      <c r="F30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="T30" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
-        <f>SUM(B6:B28)</f>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.35">
+      <c r="B31" s="10">
+        <f>SUM(B7:B29)</f>
         <v>45</v>
       </c>
-      <c r="Z30" s="11" t="s">
+      <c r="Z31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AJ30" s="21">
-        <f>SUM(AJ6:AJ28)</f>
+      <c r="AJ31" s="21">
+        <f>SUM(AJ7:AJ29)</f>
         <v>511.08</v>
       </c>
-      <c r="AK30" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL30" s="21">
-        <f>AJ30/12</f>
+      <c r="AK31" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL31" s="21">
+        <f>AJ31/12</f>
         <v>42.589999999999996</v>
       </c>
-      <c r="AM30" s="10" t="s">
-        <v>251</v>
+      <c r="AM31" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6399D90F-8454-42CF-9AEB-4C88FC2C585E}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="7" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="39">
+        <v>25</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="37">
+        <f>E2-H2</f>
+        <v>-1</v>
+      </c>
+      <c r="H2" s="32">
+        <v>26</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="39">
+        <v>15</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="37">
+        <f t="shared" ref="G3:G46" si="0">E3-H3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="32">
+        <v>14</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="39">
+        <v>20</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>20</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="39">
+        <v>15</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>14</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="40">
+        <v>25</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>26</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="39">
+        <v>18</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="37">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H7" s="32">
+        <v>20</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="39">
+        <v>26</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>26</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="39">
+        <v>30</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="37">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H9" s="32">
+        <v>34</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="39">
+        <v>26</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>26</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="39">
+        <v>18</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="37">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H11" s="32">
+        <v>20</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="30">
+        <v>17</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H12" s="32">
+        <v>18</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="30">
+        <v>25</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="32">
+        <v>25</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="30">
+        <v>9</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H14" s="32">
+        <v>10</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="30">
+        <v>25</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>25</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="30">
+        <v>17</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H16" s="32">
+        <v>18</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="30">
+        <v>29</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="37">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="H17" s="32">
+        <v>34</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="30">
+        <v>21</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H18" s="32">
+        <v>22</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="30">
+        <v>22</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="37">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H19" s="32">
+        <v>26</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="30">
+        <v>21</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H20" s="32">
+        <v>22</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="30">
+        <v>29</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="37">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="H21" s="32">
+        <v>34</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="30">
+        <v>19</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="37">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H22" s="32">
+        <v>22</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="30">
+        <v>37</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H23" s="32">
+        <v>38</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="30">
+        <v>11</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="37">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="H24" s="32">
+        <v>16</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="30">
+        <v>37</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H25" s="32">
+        <v>38</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="30">
+        <v>19</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="37">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H26" s="32">
+        <v>22</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="30">
+        <v>18</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="37">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H27" s="32">
+        <v>21</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" s="30">
+        <v>26</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H28" s="32">
+        <v>27</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="30">
+        <v>12</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="37">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H29" s="32">
+        <v>16</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" s="30">
+        <v>26</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H30" s="32">
+        <v>27</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="30">
+        <v>18</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="37">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H31" s="32">
+        <v>21</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" s="30">
+        <v>15</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="37">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H32" s="32">
+        <v>17</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E33" s="30">
+        <v>20</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="37">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H33" s="32">
+        <v>22</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="30">
+        <v>12</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H34" s="32">
+        <v>13</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="30">
+        <v>20</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="37">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H35" s="32">
+        <v>22</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" s="30">
+        <v>15</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="37">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H36" s="32">
+        <v>17</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="30">
+        <v>14</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="37">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H37" s="32">
+        <v>16</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="30">
+        <v>18</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="32">
+        <v>18</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" s="30">
+        <v>12</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H39" s="32">
+        <v>13</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="30">
+        <v>18</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="32">
+        <v>18</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="30">
+        <v>14</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="37">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H41" s="32">
+        <v>16</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" s="30">
+        <v>5</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="30">
+        <v>5</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" s="30">
+        <v>13</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="30">
+        <v>13</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="30">
+        <v>3</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="30">
+        <v>3</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="30">
+        <v>13</v>
+      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="30">
+        <v>13</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="30">
+        <v>5</v>
+      </c>
+      <c r="F46" s="30"/>
+      <c r="G46" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="30">
+        <v>5</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>